--- a/Consolidated Results.xlsx
+++ b/Consolidated Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB4715-4B32-994B-862B-51253BF1BEEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D428ED-066B-2E41-902C-68BC6D113169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{08CCCBA8-9AF0-4D46-A8AE-A6A4F906BDF9}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{08CCCBA8-9AF0-4D46-A8AE-A6A4F906BDF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Results (High Spec Cluster)" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +126,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,11 +244,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,8 +309,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C2AE8C-6743-4344-8BEB-7636E930144D}">
   <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:N19"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K172" sqref="K172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3650,6 +3683,9 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
+      <c r="B130">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
@@ -3670,6 +3706,9 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
+      <c r="B131">
+        <v>0.14599999999999999</v>
+      </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
@@ -3690,6 +3729,9 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
+      <c r="B132">
+        <v>0.123</v>
+      </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
@@ -3710,6 +3752,9 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
+      <c r="B133">
+        <v>0.11799999999999999</v>
+      </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
@@ -3910,10 +3955,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="19">
       <c r="A142" s="1">
         <v>141</v>
       </c>
+      <c r="B142" s="16">
+        <v>6.5110000000000001</v>
+      </c>
       <c r="C142" s="1">
         <v>2</v>
       </c>
@@ -3930,10 +3978,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="19">
       <c r="A143" s="1">
         <v>142</v>
       </c>
+      <c r="B143" s="16">
+        <v>18.536999999999999</v>
+      </c>
       <c r="C143" s="1">
         <v>2</v>
       </c>
@@ -3950,10 +4001,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="19">
       <c r="A144" s="1">
         <v>143</v>
       </c>
+      <c r="B144" s="16">
+        <v>33.875</v>
+      </c>
       <c r="C144" s="1">
         <v>2</v>
       </c>
@@ -3970,9 +4024,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" ht="19">
       <c r="A145" s="1">
         <v>144</v>
+      </c>
+      <c r="B145" s="16">
+        <v>49.652000000000001</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
@@ -4178,6 +4235,9 @@
       <c r="A154" s="1">
         <v>153</v>
       </c>
+      <c r="B154">
+        <v>3.6059999999999999</v>
+      </c>
       <c r="C154" s="1">
         <v>3</v>
       </c>
@@ -4198,6 +4258,9 @@
       <c r="A155" s="1">
         <v>154</v>
       </c>
+      <c r="B155">
+        <v>6.5380000000000003</v>
+      </c>
       <c r="C155" s="1">
         <v>3</v>
       </c>
@@ -4218,6 +4281,9 @@
       <c r="A156" s="1">
         <v>155</v>
       </c>
+      <c r="B156">
+        <v>10.603</v>
+      </c>
       <c r="C156" s="1">
         <v>3</v>
       </c>
@@ -4238,6 +4304,9 @@
       <c r="A157" s="1">
         <v>156</v>
       </c>
+      <c r="B157">
+        <v>16.606000000000002</v>
+      </c>
       <c r="C157" s="1">
         <v>3</v>
       </c>
@@ -4442,6 +4511,9 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
+      <c r="B166">
+        <v>5.5279999999999996</v>
+      </c>
       <c r="C166" s="1">
         <v>4</v>
       </c>
@@ -4462,6 +4534,9 @@
       <c r="A167" s="1">
         <v>166</v>
       </c>
+      <c r="B167">
+        <v>12.728999999999999</v>
+      </c>
       <c r="C167" s="1">
         <v>4</v>
       </c>
@@ -4482,6 +4557,9 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
+      <c r="B168">
+        <v>23.581</v>
+      </c>
       <c r="C168" s="1">
         <v>4</v>
       </c>
@@ -4502,6 +4580,9 @@
       <c r="A169" s="1">
         <v>168</v>
       </c>
+      <c r="B169">
+        <v>34.655000000000001</v>
+      </c>
       <c r="C169" s="1">
         <v>4</v>
       </c>
@@ -4706,6 +4787,9 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
+      <c r="B178">
+        <v>356.79700000000003</v>
+      </c>
       <c r="C178" s="1">
         <v>5</v>
       </c>
@@ -4726,6 +4810,9 @@
       <c r="A179" s="1">
         <v>178</v>
       </c>
+      <c r="B179">
+        <v>1471.7940000000001</v>
+      </c>
       <c r="C179" s="1">
         <v>5</v>
       </c>
@@ -4746,6 +4833,9 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
+      <c r="B180">
+        <v>2954.6179999999999</v>
+      </c>
       <c r="C180" s="1">
         <v>5</v>
       </c>
@@ -4765,6 +4855,9 @@
     <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>180</v>
+      </c>
+      <c r="B181">
+        <v>4541.1350000000002</v>
       </c>
       <c r="C181" s="1">
         <v>5</v>
@@ -14276,7 +14369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D901E4-391F-5A45-90AA-C89B28F6E6B3}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -33027,7 +33120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E604F7C-A1AB-934B-B2B8-38F5E4FD099E}">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A177" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
